--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,323 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6602</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3331</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.51133</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>0.14165</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.00558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.51264</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.34269</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.11882</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.49185</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.27485</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>2.33499</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.25679</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.27572</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
-        <v>1.2539</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.70396</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.68572</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>16.2627</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.91781</v>
-      </c>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>0.07928</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1.05453</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1.83601</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.0667</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.18602</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.17016</v>
-      </c>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.31295</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.34587</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13316</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.21023</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.92034</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.07457</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.06936</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.97431</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.25469</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.06754</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.30057</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.34065</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>2.6855</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.63703</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>0.10999</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>0.007990000000000001</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>0.50236</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.70566</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.73039</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>17.02518</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3.65858</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>0.77215</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1.41824</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.01801</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.0351</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.1825</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.24706</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.1728</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.10158</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.15792</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.75234</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11591</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.58599</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.11304</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4473</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.1907</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.08812</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.99771</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.18965</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.91805</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.44096</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.25719</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.19813</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.18206</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.15803</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>0.0213</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
-        <v>1.99983</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.86231</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.55936</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>26.57475</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>5.7434</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>0.8377</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1.26511</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1.99879</v>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="n">
-        <v>0.6891</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.2504</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.0302</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0.41415</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
